--- a/Midterm/exam.xlsx
+++ b/Midterm/exam.xlsx
@@ -1,22 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\Midterm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\business-forecasting\Midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA8FFD2-12EC-4A9E-97A2-9927D81A2441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{89B50703-7FC9-49CC-A9D1-572C2F3D84EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-ErrorMeasures" sheetId="1" r:id="rId1"/>
     <sheet name="1-EffDemand" sheetId="4" r:id="rId2"/>
+    <sheet name="2-SES" sheetId="6" r:id="rId3"/>
+    <sheet name="2-Holt" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2-SES'!$C$2</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2-SES'!$C$2</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2-SES'!$D$17</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Week</t>
   </si>
@@ -135,7 +168,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,7 +183,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,27 +199,71 @@
   <si>
     <t>Cycle Service Level</t>
   </si>
+  <si>
+    <t>Initial Level</t>
+  </si>
+  <si>
+    <t>Smoothing parameter</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t>Objective: Minimize RMSE</t>
+  </si>
+  <si>
+    <t>Change smoothing parameter</t>
+  </si>
+  <si>
+    <t>Constraint smoothing parameter &lt;= 1</t>
+  </si>
+  <si>
+    <t>GRG Non Linear</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Smoothing parameters</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="0.0000"/>
+    <numFmt numFmtId="188" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="189" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +302,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -238,6 +315,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -258,11 +346,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -281,20 +370,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2177,7 +2292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2064225087"/>
@@ -2236,7 +2351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2064231743"/>
@@ -2278,12 +2393,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2291,7 +2407,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2315,7 +2430,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2972,19 +3087,68 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="180975"/>
+          <a:ext cx="5020301" cy="1095536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{649E1222-C9A9-426C-B081-07270D2CF339}" name="Table3" displayName="Table3" ref="A1:E109" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:E109" xr:uid="{649E1222-C9A9-426C-B081-07270D2CF339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E109" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:E109"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1D9A440C-5AFA-44E9-82E5-BC6A4A6E3F34}" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B9100269-B182-4B29-AC65-2B089B5D93DB}" name="TNHS" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{A52D3A3E-EAF2-4D6B-BF66-07F17D2A9081}" name="Forecast(TNHS)" dataDxfId="6">
+    <tableColumn id="1" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" name="TNHS" dataDxfId="7"/>
+    <tableColumn id="3" name="Forecast(TNHS)" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$85,$A$2:$A$85,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2CC2D8E1-37E5-4E11-A095-32EB60DF23C1}" name="Lower Confidence Bound(TNHS)" dataDxfId="5">
+    <tableColumn id="4" name="Lower Confidence Bound(TNHS)" dataDxfId="5">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$85,$A$2:$A$85,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1EBADFD7-935F-4208-8F02-6D1640D03C2E}" name="Upper Confidence Bound(TNHS)" dataDxfId="4">
+    <tableColumn id="5" name="Upper Confidence Bound(TNHS)" dataDxfId="4">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$85,$A$2:$A$85,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2993,11 +3157,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4B60725-48C9-4238-A0E2-3DFC1A9749BF}" name="Table4" displayName="Table4" ref="G1:H8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="G1:H8" xr:uid="{B4B60725-48C9-4238-A0E2-3DFC1A9749BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:H8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="G1:H8"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FDC695F-5163-400B-AF30-722EC49C46C5}" name="Statistic" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{070D8334-1C32-4CAF-A193-82663DC56E4A}" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" name="Statistic" dataDxfId="1"/>
+    <tableColumn id="2" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3299,21 +3463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1366B8AF-3621-4FA9-98BC-2B3E082ACEF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="11" width="15.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="2"/>
+    <col min="5" max="11" width="15.75" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3690,24 +3854,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75BFEE2-A6F0-43F5-AD7A-D309D9DC05AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="10.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="10"/>
+    <col min="7" max="7" width="10.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4955,4 +5119,613 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="12"/>
+    <col min="3" max="3" width="13.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="12"/>
+    <col min="7" max="8" width="9" style="23"/>
+    <col min="9" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20">
+        <v>1249.3183973285199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="21">
+        <v>0.61990608660436453</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26">
+        <f>D17</f>
+        <v>68.853355886586911</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f>C1</f>
+        <v>1249.3183973285199</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="26">
+        <f t="dataTable" ref="H4:H12" dt2D="0" dtr="0" r1="C2"/>
+        <v>71.790973602861683</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1212</v>
+      </c>
+      <c r="C5" s="14">
+        <f>$C$2*B5+(1-$C$2)*C4</f>
+        <v>1226.1844956822504</v>
+      </c>
+      <c r="D5" s="14">
+        <f>C4</f>
+        <v>1249.3183973285199</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>72.266848866809227</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1321</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" ref="C6:C14" si="0">$C$2*B6+(1-$C$2)*C5</f>
+        <v>1284.9612039132858</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D14" si="1">C5</f>
+        <v>1226.1844956822504</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="26">
+        <v>71.520598492424782</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1278</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>1280.6459112373457</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="1"/>
+        <v>1284.9612039132858</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="26">
+        <v>70.350319490671211</v>
+      </c>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1341</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>1318.0597782127752</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="1"/>
+        <v>1280.6459112373457</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="26">
+        <v>69.348573231514649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1257</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>1280.2084500519632</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="1"/>
+        <v>1318.0597782127752</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="26">
+        <v>68.868021186770974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1341</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>1317.8935018788643</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="1"/>
+        <v>1280.2084500519632</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="26">
+        <v>69.104062710127906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1257</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>1280.145249429502</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="1"/>
+        <v>1317.8935018788643</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="26">
+        <v>70.182944538541904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1287</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="0"/>
+        <v>1284.3945510303085</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="1"/>
+        <v>1280.145249429502</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="26">
+        <v>72.226857340239377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1189</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="0"/>
+        <v>1225.2588882177297</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>1284.3945510303085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1111</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="0"/>
+        <v>1154.4291079629113</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="1"/>
+        <v>1225.2588882177297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="array" ref="D16">AVERAGE((B5:B14-D5:D14)^2)</f>
+        <v>4740.7846168449923</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12">
+        <f>SQRT(D16)</f>
+        <v>68.853355886586911</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="10.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="12">
+        <v>1324.7713000000001</v>
+      </c>
+      <c r="D1" s="12">
+        <v>-11.7524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <f>C1</f>
+        <v>1324.7713000000001</v>
+      </c>
+      <c r="D4" s="12">
+        <f>D1</f>
+        <v>-11.7524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1212</v>
+      </c>
+      <c r="C5" s="12">
+        <f>$C$2*B5+(1-$C$2)*(C4+D4)</f>
+        <v>1313.00879811</v>
+      </c>
+      <c r="D5" s="12">
+        <f>$D$2*(C5-C4)+(1-$D$2)*D4</f>
+        <v>-11.752401010188999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1321</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:C14" si="0">$C$2*B6+(1-$C$2)*(C5+D5)</f>
+        <v>1301.258371460101</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6:D14" si="1">$D$2*(C6-C5)+(1-$D$2)*D5</f>
+        <v>-11.75240081275297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1278</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>1289.5048200502833</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.752400927812676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1341</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>1277.7587438805583</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.752400295336868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1257</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>1266.005442950863</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.752400385400303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1341</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>1254.2617172612061</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.75239951793073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1257</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>1242.5107668115011</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.752399373023907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1287</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>1230.7639916017333</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.752398810607582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1189</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>1219.0085916318467</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.752399110723511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1111</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>1207.2465669018711</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.752400073285436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="E15" s="28">
+        <f>$C$14+(A15-$A$14)*$D$14</f>
+        <v>1195.4941668285858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" ref="E16:E18" si="2">$C$14+(A16-$A$14)*$D$14</f>
+        <v>1183.7417667553002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="2"/>
+        <v>1171.9893666820149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="2"/>
+        <v>1160.2369666087293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Midterm/exam.xlsx
+++ b/Midterm/exam.xlsx
@@ -9,15 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1-ErrorMeasures" sheetId="1" r:id="rId1"/>
     <sheet name="1-EffDemand" sheetId="4" r:id="rId2"/>
     <sheet name="2-SES" sheetId="6" r:id="rId3"/>
     <sheet name="2-Holt" sheetId="7" r:id="rId4"/>
+    <sheet name="5-SI" sheetId="8" r:id="rId5"/>
+    <sheet name="5-SI (A)" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="SI" localSheetId="5">'5-SI (A)'!$C$17:$D$20</definedName>
+    <definedName name="SI">'5-SI'!$C$17:$D$20</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'2-SES'!$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
@@ -68,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Week</t>
   </si>
@@ -241,6 +245,43 @@
   <si>
     <t>Trend</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>True Value</t>
+  </si>
+  <si>
+    <t>Overall average</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Seasonal
+Factor</t>
+  </si>
+  <si>
+    <t>Sum(SI)</t>
+  </si>
+  <si>
+    <t>SI - Q</t>
+  </si>
+  <si>
+    <t>Seasonally
+Adjusted</t>
+  </si>
+  <si>
+    <t>SSADJ
+Forecast</t>
+  </si>
+  <si>
+    <t>Actual
+Forecast</t>
+  </si>
 </sst>
 </file>
 
@@ -351,7 +392,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -389,12 +430,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,6 +442,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2441,7 +2491,1217 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7784</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6822</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F498-446B-B181-2F437C5F5485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seasonally
+Adjusted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7321.5053763440856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7183.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6635.3535353535353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7005.0847457627124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7803.2258064516127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7848.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7862.6262626262624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7393.2203389830511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7518.2795698924729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8029.2929292929293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8177.9661016949158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F498-446B-B181-2F437C5F5485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSADJ
+Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI'!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>7321.5053763440856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7183.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6635.3535353535353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7005.0847457627124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7803.2258064516127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7848.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7862.6262626262624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7393.2203389830511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7518.2795698924729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7580</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8029.2929292929293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8177.9661016949158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F498-446B-B181-2F437C5F5485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual
+Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI'!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>6589.3548387096771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7111.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7829.7171717171714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6514.7288135593226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7022.9032258064517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7770.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9277.8989898989894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6875.6949152542375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6766.4516129032254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7504.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9474.5656565656554</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7605.5084745762724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F498-446B-B181-2F437C5F5485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="439236943"/>
+        <c:axId val="439226959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="439236943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439226959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439226959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439236943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI (A)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI (A)'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7784</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6822</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9345-4C73-928D-58BC5DA58861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI (A)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seasonally
+Adjusted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI (A)'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7318.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7210.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6664.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6915.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7766.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7809.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7879.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7373.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7501.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7567.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8044.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8299.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9345-4C73-928D-58BC5DA58861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI (A)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSADJ
+Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI (A)'!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>7318.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7210.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6664.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6915.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7766.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7809.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7879.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7373.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7501.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7567.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8044.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8299.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9345-4C73-928D-58BC5DA58861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-SI (A)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual
+Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-SI (A)'!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>6573.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7115.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6405.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7021.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7714.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6863.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6756.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7472.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7789.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9345-4C73-928D-58BC5DA58861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="439236943"/>
+        <c:axId val="439226959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="439236943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439226959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439226959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439236943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2997,6 +4257,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3131,6 +5397,78 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5134,49 +7472,49 @@
     <col min="1" max="2" width="9" style="12"/>
     <col min="3" max="3" width="13.25" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="12"/>
-    <col min="7" max="8" width="9" style="23"/>
+    <col min="7" max="8" width="9" style="22"/>
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="20">
         <v>1249.3183973285199</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="21">
         <v>0.61990608660436453</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24">
         <f>D17</f>
         <v>68.853355886586911</v>
       </c>
@@ -5192,10 +7530,10 @@
         <f>C1</f>
         <v>1249.3183973285199</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>0.1</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <f t="dataTable" ref="H4:H12" dt2D="0" dtr="0" r1="C2"/>
         <v>71.790973602861683</v>
       </c>
@@ -5221,10 +7559,10 @@
         <f>C4</f>
         <v>1249.3183973285199</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>0.2</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>72.266848866809227</v>
       </c>
       <c r="J5" s="12">
@@ -5249,10 +7587,10 @@
         <f t="shared" ref="D6:D14" si="1">C5</f>
         <v>1226.1844956822504</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>0.3</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>71.520598492424782</v>
       </c>
       <c r="J6" s="12">
@@ -5277,10 +7615,10 @@
         <f t="shared" si="1"/>
         <v>1284.9612039132858</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <v>0.4</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>70.350319490671211</v>
       </c>
       <c r="J7" s="12">
@@ -5305,10 +7643,10 @@
         <f t="shared" si="1"/>
         <v>1280.6459112373457</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>0.5</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>69.348573231514649</v>
       </c>
     </row>
@@ -5327,10 +7665,10 @@
         <f t="shared" si="1"/>
         <v>1318.0597782127752</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>0.6</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <v>68.868021186770974</v>
       </c>
     </row>
@@ -5349,10 +7687,10 @@
         <f t="shared" si="1"/>
         <v>1280.2084500519632</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>0.7</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>69.104062710127906</v>
       </c>
     </row>
@@ -5371,10 +7709,10 @@
         <f t="shared" si="1"/>
         <v>1317.8935018788643</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="24">
         <v>0.8</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <v>70.182944538541904</v>
       </c>
     </row>
@@ -5393,10 +7731,10 @@
         <f t="shared" si="1"/>
         <v>1280.145249429502</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <v>0.9</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <v>72.226857340239377</v>
       </c>
     </row>
@@ -5464,7 +7802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5499,7 +7837,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -5692,7 +8030,7 @@
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
         <f>$C$14+(A15-$A$14)*$D$14</f>
         <v>1195.4941668285858</v>
       </c>
@@ -5701,7 +8039,7 @@
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <f t="shared" ref="E16:E18" si="2">$C$14+(A16-$A$14)*$D$14</f>
         <v>1183.7417667553002</v>
       </c>
@@ -5710,7 +8048,7 @@
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <f t="shared" si="2"/>
         <v>1171.9893666820149</v>
       </c>
@@ -5719,7 +8057,7 @@
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <f t="shared" si="2"/>
         <v>1160.2369666087293</v>
       </c>
@@ -5728,4 +8066,1003 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="10" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9" style="12"/>
+    <col min="8" max="8" width="10" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>6809</v>
+      </c>
+      <c r="D2" s="18">
+        <f>C2/$C$16</f>
+        <v>0.90433974167413755</v>
+      </c>
+      <c r="E2" s="18">
+        <f>VLOOKUP(B2,SI,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="F2" s="32">
+        <f>C2/E2</f>
+        <v>7321.5053763440856</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32">
+        <v>6465</v>
+      </c>
+      <c r="D3" s="18">
+        <f t="shared" ref="D3:D13" si="0">C3/$C$16</f>
+        <v>0.85865126008566595</v>
+      </c>
+      <c r="E3" s="18">
+        <f>VLOOKUP(B3,SI,2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="32">
+        <f t="shared" ref="F3:F13" si="1">C3/E3</f>
+        <v>7183.333333333333</v>
+      </c>
+      <c r="G3" s="32">
+        <f>F2</f>
+        <v>7321.5053763440856</v>
+      </c>
+      <c r="H3" s="33">
+        <f>G3*E3</f>
+        <v>6589.3548387096771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>6569</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.8724640568449713</v>
+      </c>
+      <c r="E4" s="18">
+        <f>VLOOKUP(B4,SI,2)</f>
+        <v>0.99</v>
+      </c>
+      <c r="F4" s="32">
+        <f t="shared" si="1"/>
+        <v>6635.3535353535353</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" ref="G4:G14" si="2">F3</f>
+        <v>7183.333333333333</v>
+      </c>
+      <c r="H4" s="33">
+        <f t="shared" ref="H4:H14" si="3">G4*E4</f>
+        <v>7111.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="32">
+        <v>8266</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0978517116578677</v>
+      </c>
+      <c r="E5" s="18">
+        <f>VLOOKUP(B5,SI,2)</f>
+        <v>1.18</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="1"/>
+        <v>7005.0847457627124</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="2"/>
+        <v>6635.3535353535353</v>
+      </c>
+      <c r="H5" s="33">
+        <f t="shared" si="3"/>
+        <v>7829.7171717171714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>7257</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.96384102002191452</v>
+      </c>
+      <c r="E6" s="18">
+        <f>VLOOKUP(B6,SI,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="1"/>
+        <v>7803.2258064516127</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="2"/>
+        <v>7005.0847457627124</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="3"/>
+        <v>6514.7288135593226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>7064</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.93820765680512663</v>
+      </c>
+      <c r="E7" s="18">
+        <f>VLOOKUP(B7,SI,2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="32">
+        <f t="shared" si="1"/>
+        <v>7848.8888888888887</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="2"/>
+        <v>7803.2258064516127</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="3"/>
+        <v>7022.9032258064517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>7784</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0338347112926254</v>
+      </c>
+      <c r="E8" s="18">
+        <f>VLOOKUP(B8,SI,2)</f>
+        <v>0.99</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="1"/>
+        <v>7862.6262626262624</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="2"/>
+        <v>7848.8888888888887</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="3"/>
+        <v>7770.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="32">
+        <v>8724</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1586811435401931</v>
+      </c>
+      <c r="E9" s="18">
+        <f>VLOOKUP(B9,SI,2)</f>
+        <v>1.18</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="1"/>
+        <v>7393.2203389830511</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="2"/>
+        <v>7862.6262626262624</v>
+      </c>
+      <c r="H9" s="33">
+        <f t="shared" si="3"/>
+        <v>9277.8989898989894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>6992</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.92864495135637681</v>
+      </c>
+      <c r="E10" s="18">
+        <f>VLOOKUP(B10,SI,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="1"/>
+        <v>7518.2795698924729</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="2"/>
+        <v>7393.2203389830511</v>
+      </c>
+      <c r="H10" s="33">
+        <f t="shared" si="3"/>
+        <v>6875.6949152542375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32">
+        <v>6822</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.90606634126905072</v>
+      </c>
+      <c r="E11" s="18">
+        <f>VLOOKUP(B11,SI,2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="32">
+        <f t="shared" si="1"/>
+        <v>7580</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="2"/>
+        <v>7518.2795698924729</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" si="3"/>
+        <v>6766.4516129032254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="32">
+        <v>7949</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0557492446126773</v>
+      </c>
+      <c r="E12" s="18">
+        <f>VLOOKUP(B12,SI,2)</f>
+        <v>0.99</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="1"/>
+        <v>8029.2929292929293</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="2"/>
+        <v>7580</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" si="3"/>
+        <v>7504.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" s="32">
+        <v>9650</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2816681608393929</v>
+      </c>
+      <c r="E13" s="18">
+        <f>VLOOKUP(B13,SI,2)</f>
+        <v>1.18</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="1"/>
+        <v>8177.9661016949158</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="2"/>
+        <v>8029.2929292929293</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="3"/>
+        <v>9474.5656565656554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="E14" s="18">
+        <f>VLOOKUP(B14,SI,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32">
+        <f t="shared" si="2"/>
+        <v>8177.9661016949158</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="3"/>
+        <v>7605.5084745762724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="12">
+        <f>AVERAGE(C2:C13)</f>
+        <v>7529.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <f>ROUND(AVERAGEIF(B$2:B$13,C17,D$2:D$13),2)</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="29">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:D20" si="4">ROUND(AVERAGEIF(B$2:B$13,C18,D$2:D$13),2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="29">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="4"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="12">
+        <f>SUM(D17:D20)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="10" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9" style="12"/>
+    <col min="8" max="8" width="10" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>6809</v>
+      </c>
+      <c r="D2" s="18">
+        <f>C2-$C$16</f>
+        <v>-720.25</v>
+      </c>
+      <c r="E2" s="18">
+        <f>VLOOKUP(B2,SI,2)</f>
+        <v>-509.92</v>
+      </c>
+      <c r="F2" s="32">
+        <f>C2-E2</f>
+        <v>7318.92</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32">
+        <v>6465</v>
+      </c>
+      <c r="D3" s="18">
+        <f t="shared" ref="D3:D13" si="0">C3-$C$16</f>
+        <v>-1064.25</v>
+      </c>
+      <c r="E3" s="18">
+        <f>VLOOKUP(B3,SI,2)</f>
+        <v>-745.58</v>
+      </c>
+      <c r="F3" s="32">
+        <f t="shared" ref="F3:F13" si="1">C3-E3</f>
+        <v>7210.58</v>
+      </c>
+      <c r="G3" s="32">
+        <f>F2</f>
+        <v>7318.92</v>
+      </c>
+      <c r="H3" s="33">
+        <f>G3+E3</f>
+        <v>6573.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>6569</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="0"/>
+        <v>-960.25</v>
+      </c>
+      <c r="E4" s="18">
+        <f>VLOOKUP(B4,SI,2)</f>
+        <v>-95.25</v>
+      </c>
+      <c r="F4" s="32">
+        <f t="shared" si="1"/>
+        <v>6664.25</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" ref="G4:G14" si="2">F3</f>
+        <v>7210.58</v>
+      </c>
+      <c r="H4" s="33">
+        <f t="shared" ref="H4:H14" si="3">G4+E4</f>
+        <v>7115.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="32">
+        <v>8266</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="0"/>
+        <v>736.75</v>
+      </c>
+      <c r="E5" s="18">
+        <f>VLOOKUP(B5,SI,2)</f>
+        <v>1350.75</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="1"/>
+        <v>6915.25</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="2"/>
+        <v>6664.25</v>
+      </c>
+      <c r="H5" s="33">
+        <f t="shared" si="3"/>
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>7257</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>-272.25</v>
+      </c>
+      <c r="E6" s="18">
+        <f>VLOOKUP(B6,SI,2)</f>
+        <v>-509.92</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="1"/>
+        <v>7766.92</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="2"/>
+        <v>6915.25</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="3"/>
+        <v>6405.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>7064</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>-465.25</v>
+      </c>
+      <c r="E7" s="18">
+        <f>VLOOKUP(B7,SI,2)</f>
+        <v>-745.58</v>
+      </c>
+      <c r="F7" s="32">
+        <f t="shared" si="1"/>
+        <v>7809.58</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="2"/>
+        <v>7766.92</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="3"/>
+        <v>7021.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>7784</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>254.75</v>
+      </c>
+      <c r="E8" s="18">
+        <f>VLOOKUP(B8,SI,2)</f>
+        <v>-95.25</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="1"/>
+        <v>7879.25</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="2"/>
+        <v>7809.58</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="3"/>
+        <v>7714.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="32">
+        <v>8724</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>1194.75</v>
+      </c>
+      <c r="E9" s="18">
+        <f>VLOOKUP(B9,SI,2)</f>
+        <v>1350.75</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="1"/>
+        <v>7373.25</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="2"/>
+        <v>7879.25</v>
+      </c>
+      <c r="H9" s="33">
+        <f t="shared" si="3"/>
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>6992</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>-537.25</v>
+      </c>
+      <c r="E10" s="18">
+        <f>VLOOKUP(B10,SI,2)</f>
+        <v>-509.92</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="1"/>
+        <v>7501.92</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="2"/>
+        <v>7373.25</v>
+      </c>
+      <c r="H10" s="33">
+        <f t="shared" si="3"/>
+        <v>6863.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32">
+        <v>6822</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>-707.25</v>
+      </c>
+      <c r="E11" s="18">
+        <f>VLOOKUP(B11,SI,2)</f>
+        <v>-745.58</v>
+      </c>
+      <c r="F11" s="32">
+        <f t="shared" si="1"/>
+        <v>7567.58</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="2"/>
+        <v>7501.92</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" si="3"/>
+        <v>6756.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="32">
+        <v>7949</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>419.75</v>
+      </c>
+      <c r="E12" s="18">
+        <f>VLOOKUP(B12,SI,2)</f>
+        <v>-95.25</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="1"/>
+        <v>8044.25</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="2"/>
+        <v>7567.58</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" si="3"/>
+        <v>7472.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" s="32">
+        <v>9650</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>2120.75</v>
+      </c>
+      <c r="E13" s="18">
+        <f>VLOOKUP(B13,SI,2)</f>
+        <v>1350.75</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="1"/>
+        <v>8299.25</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="2"/>
+        <v>8044.25</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="3"/>
+        <v>9395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
+        <f>VLOOKUP(B14,SI,2)</f>
+        <v>-509.92</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32">
+        <f t="shared" si="2"/>
+        <v>8299.25</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="3"/>
+        <v>7789.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="12">
+        <f>AVERAGE(C2:C13)</f>
+        <v>7529.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <f>ROUND(AVERAGEIF(B$2:B$13,C17,D$2:D$13),2)</f>
+        <v>-509.92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="29">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:D20" si="4">ROUND(AVERAGEIF(B$2:B$13,C18,D$2:D$13),2)</f>
+        <v>-745.58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="4"/>
+        <v>-95.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="29">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="4"/>
+        <v>1350.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="12">
+        <f>SUM(D17:D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Midterm/exam.xlsx
+++ b/Midterm/exam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\business-forecasting\Midterm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\Midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E91173E-6634-4FCC-A35B-C4F8077DF8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-ErrorMeasures" sheetId="1" r:id="rId1"/>
@@ -18,42 +19,74 @@
     <sheet name="2-Holt" sheetId="7" r:id="rId4"/>
     <sheet name="5-SI" sheetId="8" r:id="rId5"/>
     <sheet name="5-SI (A)" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="SES exam" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="SI" localSheetId="5">'5-SI (A)'!$C$17:$D$20</definedName>
     <definedName name="SI">'5-SI'!$C$17:$D$20</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'2-SES'!$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'SES exam'!$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2-SES'!$C$2</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'SES exam'!$C$2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'2-SES'!$D$17</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'SES exam'!$D$17</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -172,7 +205,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -187,7 +220,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -282,29 +315,32 @@
     <t>Actual
 Forecast</t>
   </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="0.0000"/>
-    <numFmt numFmtId="188" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="189" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,7 +379,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -392,7 +428,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -411,22 +447,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -441,13 +477,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -457,6 +487,18 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2342,7 +2384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2064225087"/>
@@ -2401,7 +2443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2064231743"/>
@@ -2443,13 +2485,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="th-TH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2457,6 +2498,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2480,7 +2522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2927,7 +2969,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="439226959"/>
@@ -2972,7 +3014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="439236943"/>
@@ -2989,7 +3031,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3015,7 +3056,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="th-TH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3045,7 +3086,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3492,7 +3533,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="439226959"/>
@@ -3537,7 +3578,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="439236943"/>
@@ -3554,7 +3595,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3580,7 +3620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="th-TH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3610,7 +3650,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5419,7 +5459,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5454,7 +5500,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5475,18 +5527,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E109" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:E109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:E109" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:E109" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" name="TNHS" dataDxfId="7"/>
-    <tableColumn id="3" name="Forecast(TNHS)" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TNHS" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Forecast(TNHS)" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$85,$A$2:$A$85,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Lower Confidence Bound(TNHS)" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Lower Confidence Bound(TNHS)" dataDxfId="5">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$85,$A$2:$A$85,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Upper Confidence Bound(TNHS)" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Upper Confidence Bound(TNHS)" dataDxfId="4">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$85,$A$2:$A$85,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5495,11 +5547,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:H8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="G1:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="G1:H8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="G1:H8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Statistic" dataDxfId="1"/>
-    <tableColumn id="2" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Statistic" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5801,21 +5853,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="2"/>
-    <col min="5" max="11" width="15.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6192,24 +6244,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="10"/>
-    <col min="7" max="7" width="10.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="10"/>
+    <col min="1" max="1" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="10.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -7460,36 +7512,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="13.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="12"/>
     <col min="7" max="8" width="9" style="22"/>
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="20">
         <v>1249.3183973285199</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="21">
         <v>0.61990608660436453</v>
       </c>
@@ -7799,18 +7851,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="10.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -8069,19 +8121,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="12"/>
     <col min="6" max="6" width="10" style="12" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
@@ -8089,32 +8141,32 @@
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
@@ -8123,7 +8175,7 @@
       <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>6809</v>
       </c>
       <c r="D2" s="18">
@@ -8131,14 +8183,14 @@
         <v>0.90433974167413755</v>
       </c>
       <c r="E2" s="18">
-        <f>VLOOKUP(B2,SI,2)</f>
+        <f t="shared" ref="E2:E14" si="0">VLOOKUP(B2,SI,2)</f>
         <v>0.93</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="30">
         <f>C2/E2</f>
         <v>7321.5053763440856</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
@@ -8147,26 +8199,26 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>6465</v>
       </c>
       <c r="D3" s="18">
-        <f t="shared" ref="D3:D13" si="0">C3/$C$16</f>
+        <f t="shared" ref="D3:D13" si="1">C3/$C$16</f>
         <v>0.85865126008566595</v>
       </c>
       <c r="E3" s="18">
-        <f>VLOOKUP(B3,SI,2)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F3" s="32">
-        <f t="shared" ref="F3:F13" si="1">C3/E3</f>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F13" si="2">C3/E3</f>
         <v>7183.333333333333</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="30">
         <f>F2</f>
         <v>7321.5053763440856</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <f>G3*E3</f>
         <v>6589.3548387096771</v>
       </c>
@@ -8178,27 +8230,27 @@
       <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>6569</v>
       </c>
       <c r="D4" s="18">
+        <f t="shared" si="1"/>
+        <v>0.8724640568449713</v>
+      </c>
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
-        <v>0.8724640568449713</v>
-      </c>
-      <c r="E4" s="18">
-        <f>VLOOKUP(B4,SI,2)</f>
         <v>0.99</v>
       </c>
-      <c r="F4" s="32">
-        <f t="shared" si="1"/>
+      <c r="F4" s="30">
+        <f t="shared" si="2"/>
         <v>6635.3535353535353</v>
       </c>
-      <c r="G4" s="32">
-        <f t="shared" ref="G4:G14" si="2">F3</f>
+      <c r="G4" s="30">
+        <f t="shared" ref="G4:G14" si="3">F3</f>
         <v>7183.333333333333</v>
       </c>
-      <c r="H4" s="33">
-        <f t="shared" ref="H4:H14" si="3">G4*E4</f>
+      <c r="H4" s="31">
+        <f t="shared" ref="H4:H14" si="4">G4*E4</f>
         <v>7111.5</v>
       </c>
     </row>
@@ -8209,27 +8261,27 @@
       <c r="B5" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>8266</v>
       </c>
       <c r="D5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0978517116578677</v>
+      </c>
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
-        <v>1.0978517116578677</v>
-      </c>
-      <c r="E5" s="18">
-        <f>VLOOKUP(B5,SI,2)</f>
         <v>1.18</v>
       </c>
-      <c r="F5" s="32">
-        <f t="shared" si="1"/>
+      <c r="F5" s="30">
+        <f t="shared" si="2"/>
         <v>7005.0847457627124</v>
       </c>
-      <c r="G5" s="32">
-        <f t="shared" si="2"/>
+      <c r="G5" s="30">
+        <f t="shared" si="3"/>
         <v>6635.3535353535353</v>
       </c>
-      <c r="H5" s="33">
-        <f t="shared" si="3"/>
+      <c r="H5" s="31">
+        <f t="shared" si="4"/>
         <v>7829.7171717171714</v>
       </c>
     </row>
@@ -8240,27 +8292,27 @@
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>7257</v>
       </c>
       <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>0.96384102002191452</v>
+      </c>
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
-        <v>0.96384102002191452</v>
-      </c>
-      <c r="E6" s="18">
-        <f>VLOOKUP(B6,SI,2)</f>
         <v>0.93</v>
       </c>
-      <c r="F6" s="32">
-        <f t="shared" si="1"/>
+      <c r="F6" s="30">
+        <f t="shared" si="2"/>
         <v>7803.2258064516127</v>
       </c>
-      <c r="G6" s="32">
-        <f t="shared" si="2"/>
+      <c r="G6" s="30">
+        <f t="shared" si="3"/>
         <v>7005.0847457627124</v>
       </c>
-      <c r="H6" s="33">
-        <f t="shared" si="3"/>
+      <c r="H6" s="31">
+        <f t="shared" si="4"/>
         <v>6514.7288135593226</v>
       </c>
     </row>
@@ -8271,27 +8323,27 @@
       <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>7064</v>
       </c>
       <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.93820765680512663</v>
+      </c>
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
-        <v>0.93820765680512663</v>
-      </c>
-      <c r="E7" s="18">
-        <f>VLOOKUP(B7,SI,2)</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="32">
-        <f t="shared" si="1"/>
+      <c r="F7" s="30">
+        <f t="shared" si="2"/>
         <v>7848.8888888888887</v>
       </c>
-      <c r="G7" s="32">
-        <f t="shared" si="2"/>
+      <c r="G7" s="30">
+        <f t="shared" si="3"/>
         <v>7803.2258064516127</v>
       </c>
-      <c r="H7" s="33">
-        <f t="shared" si="3"/>
+      <c r="H7" s="31">
+        <f t="shared" si="4"/>
         <v>7022.9032258064517</v>
       </c>
     </row>
@@ -8302,27 +8354,27 @@
       <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="30">
         <v>7784</v>
       </c>
       <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0338347112926254</v>
+      </c>
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
-        <v>1.0338347112926254</v>
-      </c>
-      <c r="E8" s="18">
-        <f>VLOOKUP(B8,SI,2)</f>
         <v>0.99</v>
       </c>
-      <c r="F8" s="32">
-        <f t="shared" si="1"/>
+      <c r="F8" s="30">
+        <f t="shared" si="2"/>
         <v>7862.6262626262624</v>
       </c>
-      <c r="G8" s="32">
-        <f t="shared" si="2"/>
+      <c r="G8" s="30">
+        <f t="shared" si="3"/>
         <v>7848.8888888888887</v>
       </c>
-      <c r="H8" s="33">
-        <f t="shared" si="3"/>
+      <c r="H8" s="31">
+        <f t="shared" si="4"/>
         <v>7770.4</v>
       </c>
     </row>
@@ -8333,27 +8385,27 @@
       <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="30">
         <v>8724</v>
       </c>
       <c r="D9" s="18">
+        <f t="shared" si="1"/>
+        <v>1.1586811435401931</v>
+      </c>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
-        <v>1.1586811435401931</v>
-      </c>
-      <c r="E9" s="18">
-        <f>VLOOKUP(B9,SI,2)</f>
         <v>1.18</v>
       </c>
-      <c r="F9" s="32">
-        <f t="shared" si="1"/>
+      <c r="F9" s="30">
+        <f t="shared" si="2"/>
         <v>7393.2203389830511</v>
       </c>
-      <c r="G9" s="32">
-        <f t="shared" si="2"/>
+      <c r="G9" s="30">
+        <f t="shared" si="3"/>
         <v>7862.6262626262624</v>
       </c>
-      <c r="H9" s="33">
-        <f t="shared" si="3"/>
+      <c r="H9" s="31">
+        <f t="shared" si="4"/>
         <v>9277.8989898989894</v>
       </c>
     </row>
@@ -8364,27 +8416,27 @@
       <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="30">
         <v>6992</v>
       </c>
       <c r="D10" s="18">
+        <f t="shared" si="1"/>
+        <v>0.92864495135637681</v>
+      </c>
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>0.92864495135637681</v>
-      </c>
-      <c r="E10" s="18">
-        <f>VLOOKUP(B10,SI,2)</f>
         <v>0.93</v>
       </c>
-      <c r="F10" s="32">
-        <f t="shared" si="1"/>
+      <c r="F10" s="30">
+        <f t="shared" si="2"/>
         <v>7518.2795698924729</v>
       </c>
-      <c r="G10" s="32">
-        <f t="shared" si="2"/>
+      <c r="G10" s="30">
+        <f t="shared" si="3"/>
         <v>7393.2203389830511</v>
       </c>
-      <c r="H10" s="33">
-        <f t="shared" si="3"/>
+      <c r="H10" s="31">
+        <f t="shared" si="4"/>
         <v>6875.6949152542375</v>
       </c>
     </row>
@@ -8395,27 +8447,27 @@
       <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="30">
         <v>6822</v>
       </c>
       <c r="D11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.90606634126905072</v>
+      </c>
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>0.90606634126905072</v>
-      </c>
-      <c r="E11" s="18">
-        <f>VLOOKUP(B11,SI,2)</f>
         <v>0.9</v>
       </c>
-      <c r="F11" s="32">
-        <f t="shared" si="1"/>
+      <c r="F11" s="30">
+        <f t="shared" si="2"/>
         <v>7580</v>
       </c>
-      <c r="G11" s="32">
-        <f t="shared" si="2"/>
+      <c r="G11" s="30">
+        <f t="shared" si="3"/>
         <v>7518.2795698924729</v>
       </c>
-      <c r="H11" s="33">
-        <f t="shared" si="3"/>
+      <c r="H11" s="31">
+        <f t="shared" si="4"/>
         <v>6766.4516129032254</v>
       </c>
     </row>
@@ -8426,27 +8478,27 @@
       <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>7949</v>
       </c>
       <c r="D12" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0557492446126773</v>
+      </c>
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
-        <v>1.0557492446126773</v>
-      </c>
-      <c r="E12" s="18">
-        <f>VLOOKUP(B12,SI,2)</f>
         <v>0.99</v>
       </c>
-      <c r="F12" s="32">
-        <f t="shared" si="1"/>
+      <c r="F12" s="30">
+        <f t="shared" si="2"/>
         <v>8029.2929292929293</v>
       </c>
-      <c r="G12" s="32">
-        <f t="shared" si="2"/>
+      <c r="G12" s="30">
+        <f t="shared" si="3"/>
         <v>7580</v>
       </c>
-      <c r="H12" s="33">
-        <f t="shared" si="3"/>
+      <c r="H12" s="31">
+        <f t="shared" si="4"/>
         <v>7504.2</v>
       </c>
     </row>
@@ -8457,27 +8509,27 @@
       <c r="B13" s="12">
         <v>4</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="30">
         <v>9650</v>
       </c>
       <c r="D13" s="18">
+        <f t="shared" si="1"/>
+        <v>1.2816681608393929</v>
+      </c>
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
-        <v>1.2816681608393929</v>
-      </c>
-      <c r="E13" s="18">
-        <f>VLOOKUP(B13,SI,2)</f>
         <v>1.18</v>
       </c>
-      <c r="F13" s="32">
-        <f t="shared" si="1"/>
+      <c r="F13" s="30">
+        <f t="shared" si="2"/>
         <v>8177.9661016949158</v>
       </c>
-      <c r="G13" s="32">
-        <f t="shared" si="2"/>
+      <c r="G13" s="30">
+        <f t="shared" si="3"/>
         <v>8029.2929292929293</v>
       </c>
-      <c r="H13" s="33">
-        <f t="shared" si="3"/>
+      <c r="H13" s="31">
+        <f t="shared" si="4"/>
         <v>9474.5656565656554</v>
       </c>
     </row>
@@ -8488,18 +8540,18 @@
       <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="30"/>
       <c r="E14" s="18">
-        <f>VLOOKUP(B14,SI,2)</f>
+        <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32">
-        <f t="shared" si="2"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
+        <f t="shared" si="3"/>
         <v>8177.9661016949158</v>
       </c>
-      <c r="H14" s="33">
-        <f t="shared" si="3"/>
+      <c r="H14" s="31">
+        <f t="shared" si="4"/>
         <v>7605.5084745762724</v>
       </c>
     </row>
@@ -8516,7 +8568,7 @@
       <c r="B17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <v>1</v>
       </c>
       <c r="D17" s="14">
@@ -8525,29 +8577,29 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <v>2</v>
       </c>
       <c r="D18" s="14">
-        <f t="shared" ref="D18:D20" si="4">ROUND(AVERAGEIF(B$2:B$13,C18,D$2:D$13),2)</f>
+        <f t="shared" ref="D18:D20" si="5">ROUND(AVERAGEIF(B$2:B$13,C18,D$2:D$13),2)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>3</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="29">
+      <c r="C20" s="27">
         <v>4</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.18</v>
       </c>
     </row>
@@ -8568,52 +8620,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="12"/>
+    <col min="1" max="1" width="7.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12"/>
+    <col min="7" max="7" width="9.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
@@ -8622,7 +8673,7 @@
       <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>6809</v>
       </c>
       <c r="D2" s="18">
@@ -8630,14 +8681,14 @@
         <v>-720.25</v>
       </c>
       <c r="E2" s="18">
-        <f>VLOOKUP(B2,SI,2)</f>
+        <f t="shared" ref="E2:E14" si="0">VLOOKUP(B2,SI,2)</f>
         <v>-509.92</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="30">
         <f>C2-E2</f>
         <v>7318.92</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
@@ -8646,26 +8697,26 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>6465</v>
       </c>
       <c r="D3" s="18">
-        <f t="shared" ref="D3:D13" si="0">C3-$C$16</f>
+        <f t="shared" ref="D3:D13" si="1">C3-$C$16</f>
         <v>-1064.25</v>
       </c>
       <c r="E3" s="18">
-        <f>VLOOKUP(B3,SI,2)</f>
+        <f t="shared" si="0"/>
         <v>-745.58</v>
       </c>
-      <c r="F3" s="32">
-        <f t="shared" ref="F3:F13" si="1">C3-E3</f>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F13" si="2">C3-E3</f>
         <v>7210.58</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="30">
         <f>F2</f>
         <v>7318.92</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <f>G3+E3</f>
         <v>6573.34</v>
       </c>
@@ -8677,27 +8728,27 @@
       <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>6569</v>
       </c>
       <c r="D4" s="18">
+        <f t="shared" si="1"/>
+        <v>-960.25</v>
+      </c>
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
-        <v>-960.25</v>
-      </c>
-      <c r="E4" s="18">
-        <f>VLOOKUP(B4,SI,2)</f>
         <v>-95.25</v>
       </c>
-      <c r="F4" s="32">
-        <f t="shared" si="1"/>
+      <c r="F4" s="30">
+        <f t="shared" si="2"/>
         <v>6664.25</v>
       </c>
-      <c r="G4" s="32">
-        <f t="shared" ref="G4:G14" si="2">F3</f>
+      <c r="G4" s="30">
+        <f t="shared" ref="G4:G14" si="3">F3</f>
         <v>7210.58</v>
       </c>
-      <c r="H4" s="33">
-        <f t="shared" ref="H4:H14" si="3">G4+E4</f>
+      <c r="H4" s="31">
+        <f t="shared" ref="H4:H14" si="4">G4+E4</f>
         <v>7115.33</v>
       </c>
     </row>
@@ -8708,27 +8759,27 @@
       <c r="B5" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>8266</v>
       </c>
       <c r="D5" s="18">
+        <f t="shared" si="1"/>
+        <v>736.75</v>
+      </c>
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
-        <v>736.75</v>
-      </c>
-      <c r="E5" s="18">
-        <f>VLOOKUP(B5,SI,2)</f>
         <v>1350.75</v>
       </c>
-      <c r="F5" s="32">
-        <f t="shared" si="1"/>
+      <c r="F5" s="30">
+        <f t="shared" si="2"/>
         <v>6915.25</v>
       </c>
-      <c r="G5" s="32">
-        <f t="shared" si="2"/>
+      <c r="G5" s="30">
+        <f t="shared" si="3"/>
         <v>6664.25</v>
       </c>
-      <c r="H5" s="33">
-        <f t="shared" si="3"/>
+      <c r="H5" s="31">
+        <f t="shared" si="4"/>
         <v>8015</v>
       </c>
     </row>
@@ -8739,27 +8790,27 @@
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>7257</v>
       </c>
       <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>-272.25</v>
+      </c>
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
-        <v>-272.25</v>
-      </c>
-      <c r="E6" s="18">
-        <f>VLOOKUP(B6,SI,2)</f>
         <v>-509.92</v>
       </c>
-      <c r="F6" s="32">
-        <f t="shared" si="1"/>
+      <c r="F6" s="30">
+        <f t="shared" si="2"/>
         <v>7766.92</v>
       </c>
-      <c r="G6" s="32">
-        <f t="shared" si="2"/>
+      <c r="G6" s="30">
+        <f t="shared" si="3"/>
         <v>6915.25</v>
       </c>
-      <c r="H6" s="33">
-        <f t="shared" si="3"/>
+      <c r="H6" s="31">
+        <f t="shared" si="4"/>
         <v>6405.33</v>
       </c>
     </row>
@@ -8770,27 +8821,27 @@
       <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>7064</v>
       </c>
       <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>-465.25</v>
+      </c>
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
-        <v>-465.25</v>
-      </c>
-      <c r="E7" s="18">
-        <f>VLOOKUP(B7,SI,2)</f>
         <v>-745.58</v>
       </c>
-      <c r="F7" s="32">
-        <f t="shared" si="1"/>
+      <c r="F7" s="30">
+        <f t="shared" si="2"/>
         <v>7809.58</v>
       </c>
-      <c r="G7" s="32">
-        <f t="shared" si="2"/>
+      <c r="G7" s="30">
+        <f t="shared" si="3"/>
         <v>7766.92</v>
       </c>
-      <c r="H7" s="33">
-        <f t="shared" si="3"/>
+      <c r="H7" s="31">
+        <f t="shared" si="4"/>
         <v>7021.34</v>
       </c>
     </row>
@@ -8801,27 +8852,27 @@
       <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="30">
         <v>7784</v>
       </c>
       <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>254.75</v>
+      </c>
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
-        <v>254.75</v>
-      </c>
-      <c r="E8" s="18">
-        <f>VLOOKUP(B8,SI,2)</f>
         <v>-95.25</v>
       </c>
-      <c r="F8" s="32">
-        <f t="shared" si="1"/>
+      <c r="F8" s="30">
+        <f t="shared" si="2"/>
         <v>7879.25</v>
       </c>
-      <c r="G8" s="32">
-        <f t="shared" si="2"/>
+      <c r="G8" s="30">
+        <f t="shared" si="3"/>
         <v>7809.58</v>
       </c>
-      <c r="H8" s="33">
-        <f t="shared" si="3"/>
+      <c r="H8" s="31">
+        <f t="shared" si="4"/>
         <v>7714.33</v>
       </c>
     </row>
@@ -8832,27 +8883,27 @@
       <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="30">
         <v>8724</v>
       </c>
       <c r="D9" s="18">
+        <f t="shared" si="1"/>
+        <v>1194.75</v>
+      </c>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
-        <v>1194.75</v>
-      </c>
-      <c r="E9" s="18">
-        <f>VLOOKUP(B9,SI,2)</f>
         <v>1350.75</v>
       </c>
-      <c r="F9" s="32">
-        <f t="shared" si="1"/>
+      <c r="F9" s="30">
+        <f t="shared" si="2"/>
         <v>7373.25</v>
       </c>
-      <c r="G9" s="32">
-        <f t="shared" si="2"/>
+      <c r="G9" s="30">
+        <f t="shared" si="3"/>
         <v>7879.25</v>
       </c>
-      <c r="H9" s="33">
-        <f t="shared" si="3"/>
+      <c r="H9" s="31">
+        <f t="shared" si="4"/>
         <v>9230</v>
       </c>
     </row>
@@ -8863,27 +8914,27 @@
       <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="30">
         <v>6992</v>
       </c>
       <c r="D10" s="18">
+        <f t="shared" si="1"/>
+        <v>-537.25</v>
+      </c>
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>-537.25</v>
-      </c>
-      <c r="E10" s="18">
-        <f>VLOOKUP(B10,SI,2)</f>
         <v>-509.92</v>
       </c>
-      <c r="F10" s="32">
-        <f t="shared" si="1"/>
+      <c r="F10" s="30">
+        <f t="shared" si="2"/>
         <v>7501.92</v>
       </c>
-      <c r="G10" s="32">
-        <f t="shared" si="2"/>
+      <c r="G10" s="30">
+        <f t="shared" si="3"/>
         <v>7373.25</v>
       </c>
-      <c r="H10" s="33">
-        <f t="shared" si="3"/>
+      <c r="H10" s="31">
+        <f t="shared" si="4"/>
         <v>6863.33</v>
       </c>
     </row>
@@ -8894,27 +8945,27 @@
       <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="30">
         <v>6822</v>
       </c>
       <c r="D11" s="18">
+        <f t="shared" si="1"/>
+        <v>-707.25</v>
+      </c>
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>-707.25</v>
-      </c>
-      <c r="E11" s="18">
-        <f>VLOOKUP(B11,SI,2)</f>
         <v>-745.58</v>
       </c>
-      <c r="F11" s="32">
-        <f t="shared" si="1"/>
+      <c r="F11" s="30">
+        <f t="shared" si="2"/>
         <v>7567.58</v>
       </c>
-      <c r="G11" s="32">
-        <f t="shared" si="2"/>
+      <c r="G11" s="30">
+        <f t="shared" si="3"/>
         <v>7501.92</v>
       </c>
-      <c r="H11" s="33">
-        <f t="shared" si="3"/>
+      <c r="H11" s="31">
+        <f t="shared" si="4"/>
         <v>6756.34</v>
       </c>
     </row>
@@ -8925,27 +8976,27 @@
       <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>7949</v>
       </c>
       <c r="D12" s="18">
+        <f t="shared" si="1"/>
+        <v>419.75</v>
+      </c>
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
-        <v>419.75</v>
-      </c>
-      <c r="E12" s="18">
-        <f>VLOOKUP(B12,SI,2)</f>
         <v>-95.25</v>
       </c>
-      <c r="F12" s="32">
-        <f t="shared" si="1"/>
+      <c r="F12" s="30">
+        <f t="shared" si="2"/>
         <v>8044.25</v>
       </c>
-      <c r="G12" s="32">
-        <f t="shared" si="2"/>
+      <c r="G12" s="30">
+        <f t="shared" si="3"/>
         <v>7567.58</v>
       </c>
-      <c r="H12" s="33">
-        <f t="shared" si="3"/>
+      <c r="H12" s="31">
+        <f t="shared" si="4"/>
         <v>7472.33</v>
       </c>
     </row>
@@ -8956,27 +9007,27 @@
       <c r="B13" s="12">
         <v>4</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="30">
         <v>9650</v>
       </c>
       <c r="D13" s="18">
+        <f t="shared" si="1"/>
+        <v>2120.75</v>
+      </c>
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
-        <v>2120.75</v>
-      </c>
-      <c r="E13" s="18">
-        <f>VLOOKUP(B13,SI,2)</f>
         <v>1350.75</v>
       </c>
-      <c r="F13" s="32">
-        <f t="shared" si="1"/>
+      <c r="F13" s="30">
+        <f t="shared" si="2"/>
         <v>8299.25</v>
       </c>
-      <c r="G13" s="32">
-        <f t="shared" si="2"/>
+      <c r="G13" s="30">
+        <f t="shared" si="3"/>
         <v>8044.25</v>
       </c>
-      <c r="H13" s="33">
-        <f t="shared" si="3"/>
+      <c r="H13" s="31">
+        <f t="shared" si="4"/>
         <v>9395</v>
       </c>
     </row>
@@ -8987,24 +9038,24 @@
       <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18">
-        <f>VLOOKUP(B14,SI,2)</f>
+        <f t="shared" si="0"/>
         <v>-509.92</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32">
-        <f t="shared" si="2"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
+        <f t="shared" si="3"/>
         <v>8299.25</v>
       </c>
-      <c r="H14" s="33">
-        <f t="shared" si="3"/>
+      <c r="H14" s="31">
+        <f t="shared" si="4"/>
         <v>7789.33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="12">
@@ -9016,7 +9067,7 @@
       <c r="B17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <v>1</v>
       </c>
       <c r="D17" s="14">
@@ -9025,29 +9076,29 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <v>2</v>
       </c>
       <c r="D18" s="14">
-        <f t="shared" ref="D18:D20" si="4">ROUND(AVERAGEIF(B$2:B$13,C18,D$2:D$13),2)</f>
+        <f t="shared" ref="D18:D20" si="5">ROUND(AVERAGEIF(B$2:B$13,C18,D$2:D$13),2)</f>
         <v>-745.58</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>3</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-95.25</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="29">
+      <c r="C20" s="27">
         <v>4</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1350.75</v>
       </c>
     </row>
@@ -9065,4 +9116,282 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCED1388-9D32-4F2F-8921-CF199C4A8A21}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E66A31-29DD-467C-9EE8-9BA84A5F1EC0}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="12"/>
+    <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="12"/>
+    <col min="7" max="8" width="9" style="33"/>
+    <col min="9" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="20">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24">
+        <f>D17</f>
+        <v>2223.6222534886633</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f>C1</f>
+        <v>7014</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="dataTable" ref="H4:H12" dt2D="0" dtr="0" r1="C2"/>
+        <v>2223.6222534886633</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>7014</v>
+      </c>
+      <c r="C5" s="14">
+        <f>$C$2*B5+(1-$C$2)*C4</f>
+        <v>7014</v>
+      </c>
+      <c r="D5" s="14">
+        <f>C4</f>
+        <v>7014</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="24">
+        <v>2228.5902882674513</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6935</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" ref="C6:C14" si="0">$C$2*B6+(1-$C$2)*C5</f>
+        <v>7006.1</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D14" si="1">C5</f>
+        <v>7014</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="24">
+        <v>2234.0601168746553</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>7224</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>7027.8900000000012</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="1"/>
+        <v>7006.1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2240.0316712403865</v>
+      </c>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <f t="shared" si="1"/>
+        <v>7027.8900000000012</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="24">
+        <v>2246.5048811987922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="G9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="24">
+        <v>2253.4796746720394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="G10" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="24">
+        <v>2260.9559778575963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="G11" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="24">
+        <v>2268.9337154178838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="G12" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="24">
+        <v>2277.4128106713547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="array" ref="D16">AVERAGE((B5:B14-D5:D14)^2)</f>
+        <v>4944495.9262100011</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12">
+        <f>SQRT(D16)</f>
+        <v>2223.6222534886633</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>